--- a/Team-Data/2012-13/2-27-2012-13.xlsx
+++ b/Team-Data/2012-13/2-27-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" t="n">
         <v>23</v>
       </c>
       <c r="G2" t="n">
-        <v>0.589</v>
+        <v>0.582</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
@@ -684,7 +751,7 @@
         <v>37.5</v>
       </c>
       <c r="J2" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="K2" t="n">
         <v>0.463</v>
@@ -693,28 +760,28 @@
         <v>9.1</v>
       </c>
       <c r="M2" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0.383</v>
+        <v>0.384</v>
       </c>
       <c r="O2" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="P2" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.706</v>
+        <v>0.704</v>
       </c>
       <c r="R2" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="S2" t="n">
         <v>31.4</v>
       </c>
       <c r="T2" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U2" t="n">
         <v>24.4</v>
@@ -732,31 +799,31 @@
         <v>4.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AD2" t="n">
         <v>23</v>
       </c>
       <c r="AE2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
         <v>9</v>
       </c>
       <c r="AG2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH2" t="n">
         <v>9</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
@@ -771,7 +838,7 @@
         <v>3</v>
       </c>
       <c r="AM2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN2" t="n">
         <v>4</v>
@@ -789,7 +856,7 @@
         <v>27</v>
       </c>
       <c r="AS2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT2" t="n">
         <v>26</v>
@@ -798,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AW2" t="n">
         <v>15</v>
@@ -816,7 +883,7 @@
         <v>25</v>
       </c>
       <c r="BB2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BC2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-27-2012-13</t>
+          <t>2013-02-27</t>
         </is>
       </c>
     </row>
@@ -926,16 +993,16 @@
         <v>0.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
@@ -953,25 +1020,25 @@
         <v>25</v>
       </c>
       <c r="AM3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR3" t="n">
         <v>28</v>
       </c>
       <c r="AS3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT3" t="n">
         <v>29</v>
@@ -980,7 +1047,7 @@
         <v>7</v>
       </c>
       <c r="AV3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW3" t="n">
         <v>6</v>
@@ -995,7 +1062,7 @@
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB3" t="n">
         <v>18</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-27-2012-13</t>
+          <t>2013-02-27</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>0.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AE4" t="n">
         <v>8</v>
@@ -1117,7 +1184,7 @@
         <v>10</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH4" t="n">
         <v>7</v>
@@ -1132,7 +1199,7 @@
         <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM4" t="n">
         <v>7</v>
@@ -1141,7 +1208,7 @@
         <v>14</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP4" t="n">
         <v>9</v>
@@ -1159,10 +1226,10 @@
         <v>15</v>
       </c>
       <c r="AU4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW4" t="n">
         <v>25</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-27-2012-13</t>
+          <t>2013-02-27</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-9.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1302,7 +1369,7 @@
         <v>30</v>
       </c>
       <c r="AH5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
         <v>30</v>
@@ -1332,13 +1399,13 @@
         <v>18</v>
       </c>
       <c r="AR5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS5" t="n">
         <v>26</v>
       </c>
       <c r="AT5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-27-2012-13</t>
+          <t>2013-02-27</t>
         </is>
       </c>
     </row>
@@ -1472,19 +1539,19 @@
         <v>1.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF6" t="n">
         <v>12</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>11</v>
       </c>
       <c r="AG6" t="n">
         <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
         <v>25</v>
@@ -1508,16 +1575,16 @@
         <v>16</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR6" t="n">
         <v>6</v>
       </c>
       <c r="AS6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT6" t="n">
         <v>6</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-27-2012-13</t>
+          <t>2013-02-27</t>
         </is>
       </c>
     </row>
@@ -1576,58 +1643,58 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" t="n">
         <v>38</v>
       </c>
       <c r="G7" t="n">
-        <v>0.345</v>
+        <v>0.333</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J7" t="n">
-        <v>84.5</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.433</v>
+        <v>0.434</v>
       </c>
       <c r="L7" t="n">
         <v>7.1</v>
       </c>
       <c r="M7" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="N7" t="n">
         <v>0.354</v>
       </c>
       <c r="O7" t="n">
-        <v>17.4</v>
+        <v>17.2</v>
       </c>
       <c r="P7" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.767</v>
+        <v>0.762</v>
       </c>
       <c r="R7" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="S7" t="n">
         <v>28.3</v>
       </c>
       <c r="T7" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U7" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V7" t="n">
         <v>14.1</v>
@@ -1645,37 +1712,37 @@
         <v>21.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="AC7" t="n">
-        <v>-3.3</v>
+        <v>-3.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH7" t="n">
         <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL7" t="n">
         <v>14</v>
@@ -1684,16 +1751,16 @@
         <v>11</v>
       </c>
       <c r="AN7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO7" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AP7" t="n">
         <v>14</v>
       </c>
       <c r="AQ7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR7" t="n">
         <v>7</v>
@@ -1702,10 +1769,10 @@
         <v>30</v>
       </c>
       <c r="AT7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV7" t="n">
         <v>5</v>
@@ -1714,7 +1781,7 @@
         <v>13</v>
       </c>
       <c r="AX7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY7" t="n">
         <v>29</v>
@@ -1726,10 +1793,10 @@
         <v>12</v>
       </c>
       <c r="BB7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BC7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-27-2012-13</t>
+          <t>2013-02-27</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" t="n">
         <v>25</v>
       </c>
       <c r="F8" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" t="n">
-        <v>0.439</v>
+        <v>0.446</v>
       </c>
       <c r="H8" t="n">
         <v>48.9</v>
       </c>
       <c r="I8" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J8" t="n">
-        <v>84.40000000000001</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K8" t="n">
         <v>0.453</v>
@@ -1785,10 +1852,10 @@
         <v>7.2</v>
       </c>
       <c r="M8" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.364</v>
+        <v>0.365</v>
       </c>
       <c r="O8" t="n">
         <v>17.4</v>
@@ -1806,13 +1873,13 @@
         <v>33</v>
       </c>
       <c r="T8" t="n">
-        <v>42.6</v>
+        <v>42.8</v>
       </c>
       <c r="U8" t="n">
         <v>22.8</v>
       </c>
       <c r="V8" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W8" t="n">
         <v>7.9</v>
@@ -1821,7 +1888,7 @@
         <v>5.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z8" t="n">
         <v>21</v>
@@ -1830,13 +1897,13 @@
         <v>19.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>101</v>
+        <v>101.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>-1.2</v>
+        <v>-1.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AE8" t="n">
         <v>19</v>
@@ -1851,10 +1918,10 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK8" t="n">
         <v>11</v>
@@ -1863,13 +1930,13 @@
         <v>13</v>
       </c>
       <c r="AM8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
         <v>16</v>
@@ -1884,10 +1951,10 @@
         <v>5</v>
       </c>
       <c r="AT8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV8" t="n">
         <v>7</v>
@@ -1896,7 +1963,7 @@
         <v>16</v>
       </c>
       <c r="AX8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY8" t="n">
         <v>5</v>
@@ -1908,7 +1975,7 @@
         <v>21</v>
       </c>
       <c r="BB8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC8" t="n">
         <v>18</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-27-2012-13</t>
+          <t>2013-02-27</t>
         </is>
       </c>
     </row>
@@ -1940,28 +2007,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" t="n">
         <v>22</v>
       </c>
       <c r="G9" t="n">
-        <v>0.627</v>
+        <v>0.621</v>
       </c>
       <c r="H9" t="n">
         <v>48.6</v>
       </c>
       <c r="I9" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="J9" t="n">
-        <v>85.3</v>
+        <v>85.2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.475</v>
+        <v>0.474</v>
       </c>
       <c r="L9" t="n">
         <v>6.5</v>
@@ -1970,55 +2037,55 @@
         <v>19.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.339</v>
+        <v>0.341</v>
       </c>
       <c r="O9" t="n">
         <v>18.1</v>
       </c>
       <c r="P9" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="R9" t="n">
         <v>13.5</v>
       </c>
       <c r="S9" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T9" t="n">
-        <v>45.1</v>
+        <v>45.2</v>
       </c>
       <c r="U9" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="V9" t="n">
         <v>15.2</v>
       </c>
       <c r="W9" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="X9" t="n">
         <v>6.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA9" t="n">
         <v>22</v>
       </c>
       <c r="AB9" t="n">
-        <v>105.5</v>
+        <v>105.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
         <v>6</v>
@@ -2030,7 +2097,7 @@
         <v>8</v>
       </c>
       <c r="AH9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
@@ -2039,16 +2106,16 @@
         <v>2</v>
       </c>
       <c r="AK9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM9" t="n">
         <v>16</v>
       </c>
       <c r="AN9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO9" t="n">
         <v>7</v>
@@ -2057,7 +2124,7 @@
         <v>3</v>
       </c>
       <c r="AQ9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR9" t="n">
         <v>1</v>
@@ -2072,10 +2139,10 @@
         <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-27-2012-13</t>
+          <t>2013-02-27</t>
         </is>
       </c>
     </row>
@@ -2122,28 +2189,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" t="n">
         <v>37</v>
       </c>
       <c r="G10" t="n">
-        <v>0.383</v>
+        <v>0.373</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J10" t="n">
-        <v>81.40000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.446</v>
+        <v>0.444</v>
       </c>
       <c r="L10" t="n">
         <v>6.1</v>
@@ -2152,31 +2219,31 @@
         <v>16.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.363</v>
+        <v>0.359</v>
       </c>
       <c r="O10" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="P10" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.695</v>
+        <v>0.696</v>
       </c>
       <c r="R10" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="S10" t="n">
         <v>30.8</v>
       </c>
       <c r="T10" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U10" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="V10" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W10" t="n">
         <v>6.9</v>
@@ -2188,10 +2255,10 @@
         <v>5.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB10" t="n">
         <v>94.90000000000001</v>
@@ -2203,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
         <v>23</v>
@@ -2212,13 +2279,13 @@
         <v>22</v>
       </c>
       <c r="AH10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>18</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>19</v>
       </c>
       <c r="AK10" t="n">
         <v>15</v>
@@ -2227,13 +2294,13 @@
         <v>23</v>
       </c>
       <c r="AM10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AP10" t="n">
         <v>10</v>
@@ -2245,28 +2312,28 @@
         <v>9</v>
       </c>
       <c r="AS10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU10" t="n">
         <v>24</v>
       </c>
       <c r="AV10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW10" t="n">
         <v>27</v>
       </c>
       <c r="AX10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-27-2012-13</t>
+          <t>2013-02-27</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" t="n">
         <v>33</v>
       </c>
       <c r="F11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" t="n">
-        <v>0.569</v>
+        <v>0.579</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
@@ -2322,19 +2389,19 @@
         <v>38</v>
       </c>
       <c r="J11" t="n">
-        <v>83.2</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L11" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M11" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="N11" t="n">
-        <v>0.398</v>
+        <v>0.394</v>
       </c>
       <c r="O11" t="n">
         <v>17.3</v>
@@ -2343,22 +2410,22 @@
         <v>21.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.799</v>
+        <v>0.798</v>
       </c>
       <c r="R11" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S11" t="n">
         <v>33.8</v>
       </c>
       <c r="T11" t="n">
-        <v>44.8</v>
+        <v>44.9</v>
       </c>
       <c r="U11" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="V11" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W11" t="n">
         <v>6.8</v>
@@ -2367,58 +2434,58 @@
         <v>4.1</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="AC11" t="n">
         <v>-0.4</v>
       </c>
       <c r="AD11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE11" t="n">
         <v>9</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AF11" t="n">
         <v>10</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>11</v>
       </c>
       <c r="AG11" t="n">
         <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
         <v>8</v>
       </c>
       <c r="AJ11" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AK11" t="n">
         <v>10</v>
       </c>
       <c r="AL11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN11" t="n">
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
@@ -2436,7 +2503,7 @@
         <v>11</v>
       </c>
       <c r="AV11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW11" t="n">
         <v>28</v>
@@ -2454,7 +2521,7 @@
         <v>22</v>
       </c>
       <c r="BB11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC11" t="n">
         <v>15</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-27-2012-13</t>
+          <t>2013-02-27</t>
         </is>
       </c>
     </row>
@@ -2486,46 +2553,46 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" t="n">
         <v>31</v>
       </c>
       <c r="F12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" t="n">
-        <v>0.525</v>
+        <v>0.534</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J12" t="n">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="K12" t="n">
         <v>0.463</v>
       </c>
       <c r="L12" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="M12" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="N12" t="n">
-        <v>0.367</v>
+        <v>0.368</v>
       </c>
       <c r="O12" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P12" t="n">
         <v>24.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.754</v>
+        <v>0.756</v>
       </c>
       <c r="R12" t="n">
         <v>10.9</v>
@@ -2534,16 +2601,16 @@
         <v>32.1</v>
       </c>
       <c r="T12" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U12" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V12" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="W12" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X12" t="n">
         <v>4.1</v>
@@ -2555,25 +2622,25 @@
         <v>20.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.4</v>
+        <v>106.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
         <v>13</v>
       </c>
       <c r="AF12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
         <v>25</v>
@@ -2582,7 +2649,7 @@
         <v>4</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK12" t="n">
         <v>6</v>
@@ -2603,7 +2670,7 @@
         <v>6</v>
       </c>
       <c r="AQ12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR12" t="n">
         <v>20</v>
@@ -2621,7 +2688,7 @@
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX12" t="n">
         <v>28</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-27-2012-13</t>
+          <t>2013-02-27</t>
         </is>
       </c>
     </row>
@@ -2746,10 +2813,10 @@
         <v>4.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF13" t="n">
         <v>7</v>
@@ -2758,7 +2825,7 @@
         <v>6</v>
       </c>
       <c r="AH13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>28</v>
@@ -2767,16 +2834,16 @@
         <v>23</v>
       </c>
       <c r="AK13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM13" t="n">
         <v>15</v>
       </c>
       <c r="AN13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO13" t="n">
         <v>17</v>
@@ -2797,10 +2864,10 @@
         <v>1</v>
       </c>
       <c r="AU13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW13" t="n">
         <v>24</v>
@@ -2809,7 +2876,7 @@
         <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ13" t="n">
         <v>16</v>
@@ -2818,7 +2885,7 @@
         <v>5</v>
       </c>
       <c r="BB13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC13" t="n">
         <v>5</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-27-2012-13</t>
+          <t>2013-02-27</t>
         </is>
       </c>
     </row>
@@ -2928,10 +2995,10 @@
         <v>6.6</v>
       </c>
       <c r="AD14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="n">
         <v>2</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>3</v>
       </c>
       <c r="AF14" t="n">
         <v>4</v>
@@ -2949,7 +3016,7 @@
         <v>26</v>
       </c>
       <c r="AK14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL14" t="n">
         <v>12</v>
@@ -2958,7 +3025,7 @@
         <v>10</v>
       </c>
       <c r="AN14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO14" t="n">
         <v>18</v>
@@ -2973,7 +3040,7 @@
         <v>13</v>
       </c>
       <c r="AS14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT14" t="n">
         <v>17</v>
@@ -2994,7 +3061,7 @@
         <v>6</v>
       </c>
       <c r="AZ14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA14" t="n">
         <v>7</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-27-2012-13</t>
+          <t>2013-02-27</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>0.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AE15" t="n">
         <v>16</v>
@@ -3149,19 +3216,19 @@
         <v>1</v>
       </c>
       <c r="AQ15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR15" t="n">
         <v>12</v>
       </c>
       <c r="AS15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT15" t="n">
         <v>4</v>
       </c>
       <c r="AU15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV15" t="n">
         <v>27</v>
@@ -3170,7 +3237,7 @@
         <v>21</v>
       </c>
       <c r="AX15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY15" t="n">
         <v>15</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-27-2012-13</t>
+          <t>2013-02-27</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" t="n">
         <v>18</v>
       </c>
       <c r="G16" t="n">
-        <v>0.679</v>
+        <v>0.673</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>36.1</v>
+        <v>36.3</v>
       </c>
       <c r="J16" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="K16" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L16" t="n">
         <v>4.7</v>
@@ -3247,22 +3314,22 @@
         <v>0.343</v>
       </c>
       <c r="O16" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="P16" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.782</v>
+        <v>0.781</v>
       </c>
       <c r="R16" t="n">
         <v>13.4</v>
       </c>
       <c r="S16" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T16" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U16" t="n">
         <v>21</v>
@@ -3274,10 +3341,10 @@
         <v>8.9</v>
       </c>
       <c r="X16" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z16" t="n">
         <v>19.8</v>
@@ -3286,7 +3353,7 @@
         <v>19.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.3</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC16" t="n">
         <v>3.8</v>
@@ -3304,16 +3371,16 @@
         <v>5</v>
       </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK16" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3322,16 +3389,16 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO16" t="n">
         <v>23</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>22</v>
       </c>
       <c r="AP16" t="n">
         <v>24</v>
       </c>
       <c r="AQ16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR16" t="n">
         <v>2</v>
@@ -3349,25 +3416,25 @@
         <v>14</v>
       </c>
       <c r="AW16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY16" t="n">
         <v>21</v>
       </c>
       <c r="AZ16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB16" t="n">
         <v>27</v>
       </c>
       <c r="BC16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-27-2012-13</t>
+          <t>2013-02-27</t>
         </is>
       </c>
     </row>
@@ -3474,13 +3541,13 @@
         <v>7.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG17" t="n">
         <v>2</v>
@@ -3507,13 +3574,13 @@
         <v>3</v>
       </c>
       <c r="AO17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
         <v>12</v>
       </c>
       <c r="AQ17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3543,7 +3610,7 @@
         <v>12</v>
       </c>
       <c r="BA17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB17" t="n">
         <v>5</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-27-2012-13</t>
+          <t>2013-02-27</t>
         </is>
       </c>
     </row>
@@ -3578,34 +3645,34 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" t="n">
         <v>28</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>0.491</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
       </c>
       <c r="I18" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J18" t="n">
         <v>86.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L18" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M18" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="N18" t="n">
         <v>0.349</v>
@@ -3620,10 +3687,10 @@
         <v>0.733</v>
       </c>
       <c r="R18" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S18" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="T18" t="n">
         <v>43.7</v>
@@ -3644,43 +3711,43 @@
         <v>4.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AA18" t="n">
         <v>19.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.90000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
       <c r="AD18" t="n">
         <v>23</v>
       </c>
       <c r="AE18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF18" t="n">
         <v>16</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>15</v>
       </c>
       <c r="AG18" t="n">
         <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
       </c>
       <c r="AK18" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AL18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM18" t="n">
         <v>20</v>
@@ -3692,7 +3759,7 @@
         <v>24</v>
       </c>
       <c r="AP18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ18" t="n">
         <v>24</v>
@@ -3701,7 +3768,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AT18" t="n">
         <v>5</v>
@@ -3728,7 +3795,7 @@
         <v>19</v>
       </c>
       <c r="BB18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC18" t="n">
         <v>17</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-27-2012-13</t>
+          <t>2013-02-27</t>
         </is>
       </c>
     </row>
@@ -3856,7 +3923,7 @@
         <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK19" t="n">
         <v>25</v>
@@ -3889,7 +3956,7 @@
         <v>7</v>
       </c>
       <c r="AU19" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AV19" t="n">
         <v>26</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-27-2012-13</t>
+          <t>2013-02-27</t>
         </is>
       </c>
     </row>
@@ -3942,37 +4009,37 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E20" t="n">
         <v>20</v>
       </c>
       <c r="F20" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" t="n">
-        <v>0.339</v>
+        <v>0.345</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J20" t="n">
         <v>80.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.451</v>
+        <v>0.453</v>
       </c>
       <c r="L20" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M20" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.371</v>
+        <v>0.373</v>
       </c>
       <c r="O20" t="n">
         <v>14.8</v>
@@ -3981,58 +4048,58 @@
         <v>19.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R20" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S20" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="T20" t="n">
-        <v>41.1</v>
+        <v>41.3</v>
       </c>
       <c r="U20" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V20" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W20" t="n">
         <v>6.4</v>
       </c>
       <c r="X20" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA20" t="n">
         <v>18.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>94.2</v>
+        <v>94.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.6</v>
+        <v>-2.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE20" t="n">
         <v>23</v>
       </c>
       <c r="AF20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI20" t="n">
         <v>20</v>
@@ -4041,7 +4108,7 @@
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
         <v>17</v>
@@ -4059,16 +4126,16 @@
         <v>28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS20" t="n">
         <v>23</v>
       </c>
       <c r="AT20" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AU20" t="n">
         <v>21</v>
@@ -4086,16 +4153,16 @@
         <v>25</v>
       </c>
       <c r="AZ20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
       </c>
       <c r="BB20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC20" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-27-2012-13</t>
+          <t>2013-02-27</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
       </c>
       <c r="G21" t="n">
-        <v>0.63</v>
+        <v>0.623</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
@@ -4145,43 +4212,43 @@
         <v>82.40000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L21" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="M21" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="N21" t="n">
-        <v>0.373</v>
+        <v>0.374</v>
       </c>
       <c r="O21" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P21" t="n">
-        <v>21.8</v>
+        <v>21.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R21" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S21" t="n">
         <v>30</v>
       </c>
       <c r="T21" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U21" t="n">
         <v>19.6</v>
       </c>
       <c r="V21" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="W21" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X21" t="n">
         <v>3.8</v>
@@ -4196,16 +4263,16 @@
         <v>19.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="AC21" t="n">
         <v>3.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF21" t="n">
         <v>6</v>
@@ -4235,22 +4302,22 @@
         <v>6</v>
       </c>
       <c r="AO21" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AP21" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AQ21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS21" t="n">
         <v>22</v>
       </c>
       <c r="AT21" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AU21" t="n">
         <v>29</v>
@@ -4262,7 +4329,7 @@
         <v>14</v>
       </c>
       <c r="AX21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY21" t="n">
         <v>2</v>
@@ -4277,7 +4344,7 @@
         <v>10</v>
       </c>
       <c r="BC21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-27-2012-13</t>
+          <t>2013-02-27</t>
         </is>
       </c>
     </row>
@@ -4306,85 +4373,85 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F22" t="n">
         <v>15</v>
       </c>
       <c r="G22" t="n">
-        <v>0.737</v>
+        <v>0.732</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J22" t="n">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.484</v>
+        <v>0.483</v>
       </c>
       <c r="L22" t="n">
         <v>7.6</v>
       </c>
       <c r="M22" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.393</v>
+        <v>0.392</v>
       </c>
       <c r="O22" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="P22" t="n">
         <v>26.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.836</v>
+        <v>0.833</v>
       </c>
       <c r="R22" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S22" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="T22" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U22" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V22" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W22" t="n">
         <v>8.4</v>
       </c>
       <c r="X22" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="Y22" t="n">
         <v>4.2</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA22" t="n">
         <v>21</v>
       </c>
       <c r="AB22" t="n">
-        <v>106.8</v>
+        <v>106.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4399,7 +4466,7 @@
         <v>14</v>
       </c>
       <c r="AI22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ22" t="n">
         <v>29</v>
@@ -4435,13 +4502,13 @@
         <v>10</v>
       </c>
       <c r="AU22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV22" t="n">
         <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-27-2012-13</t>
+          <t>2013-02-27</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
       </c>
       <c r="F23" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23" t="n">
-        <v>0.276</v>
+        <v>0.281</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
@@ -4521,22 +4588,22 @@
         <v>0.337</v>
       </c>
       <c r="O23" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="P23" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.767</v>
+        <v>0.765</v>
       </c>
       <c r="R23" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S23" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T23" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U23" t="n">
         <v>23.4</v>
@@ -4548,25 +4615,25 @@
         <v>5.9</v>
       </c>
       <c r="X23" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y23" t="n">
         <v>4.9</v>
       </c>
       <c r="Z23" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="AA23" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>94</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.9</v>
+        <v>-5.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4581,13 +4648,13 @@
         <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL23" t="n">
         <v>21</v>
@@ -4599,13 +4666,13 @@
         <v>28</v>
       </c>
       <c r="AO23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP23" t="n">
         <v>30</v>
       </c>
       <c r="AQ23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR23" t="n">
         <v>24</v>
@@ -4614,13 +4681,13 @@
         <v>8</v>
       </c>
       <c r="AT23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU23" t="n">
         <v>5</v>
       </c>
       <c r="AV23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
@@ -4638,7 +4705,7 @@
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC23" t="n">
         <v>28</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-27-2012-13</t>
+          <t>2013-02-27</t>
         </is>
       </c>
     </row>
@@ -4748,16 +4815,16 @@
         <v>-3.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF24" t="n">
         <v>20</v>
       </c>
       <c r="AG24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH24" t="n">
         <v>22</v>
@@ -4778,10 +4845,10 @@
         <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP24" t="n">
         <v>29</v>
@@ -4799,7 +4866,7 @@
         <v>21</v>
       </c>
       <c r="AU24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV24" t="n">
         <v>2</v>
@@ -4811,7 +4878,7 @@
         <v>20</v>
       </c>
       <c r="AY24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ24" t="n">
         <v>7</v>
@@ -4820,7 +4887,7 @@
         <v>29</v>
       </c>
       <c r="BB24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC24" t="n">
         <v>26</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-27-2012-13</t>
+          <t>2013-02-27</t>
         </is>
       </c>
     </row>
@@ -4852,37 +4919,37 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" t="n">
         <v>39</v>
       </c>
       <c r="G25" t="n">
-        <v>0.339</v>
+        <v>0.328</v>
       </c>
       <c r="H25" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I25" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J25" t="n">
-        <v>84.2</v>
+        <v>84</v>
       </c>
       <c r="K25" t="n">
         <v>0.442</v>
       </c>
       <c r="L25" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="M25" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.325</v>
+        <v>0.326</v>
       </c>
       <c r="O25" t="n">
         <v>14.6</v>
@@ -4891,19 +4958,19 @@
         <v>19.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.745</v>
+        <v>0.746</v>
       </c>
       <c r="R25" t="n">
         <v>11.5</v>
       </c>
       <c r="S25" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T25" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U25" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V25" t="n">
         <v>14.9</v>
@@ -4915,34 +4982,34 @@
         <v>5.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="AA25" t="n">
         <v>18.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>94.59999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>-5.4</v>
+        <v>-5.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF25" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG25" t="n">
         <v>26</v>
       </c>
-      <c r="AG25" t="n">
-        <v>25</v>
-      </c>
       <c r="AH25" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AI25" t="n">
         <v>13</v>
@@ -4963,7 +5030,7 @@
         <v>29</v>
       </c>
       <c r="AO25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP25" t="n">
         <v>26</v>
@@ -4972,7 +5039,7 @@
         <v>19</v>
       </c>
       <c r="AR25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS25" t="n">
         <v>21</v>
@@ -4981,28 +5048,28 @@
         <v>18</v>
       </c>
       <c r="AU25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AW25" t="n">
         <v>17</v>
       </c>
       <c r="AX25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY25" t="n">
         <v>17</v>
       </c>
       <c r="AZ25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA25" t="n">
         <v>28</v>
       </c>
       <c r="BB25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC25" t="n">
         <v>27</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-27-2012-13</t>
+          <t>2013-02-27</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" t="n">
         <v>26</v>
       </c>
       <c r="F26" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G26" t="n">
-        <v>0.456</v>
+        <v>0.464</v>
       </c>
       <c r="H26" t="n">
         <v>48.6</v>
@@ -5058,34 +5125,34 @@
         <v>0.442</v>
       </c>
       <c r="L26" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M26" t="n">
         <v>23.7</v>
       </c>
       <c r="N26" t="n">
-        <v>0.339</v>
+        <v>0.338</v>
       </c>
       <c r="O26" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P26" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.78</v>
+        <v>0.778</v>
       </c>
       <c r="R26" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S26" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T26" t="n">
         <v>41.5</v>
       </c>
       <c r="U26" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V26" t="n">
         <v>15.1</v>
@@ -5100,25 +5167,25 @@
         <v>4.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>97</v>
+        <v>96.8</v>
       </c>
       <c r="AC26" t="n">
         <v>-2.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
       </c>
       <c r="AF26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG26" t="n">
         <v>18</v>
@@ -5139,28 +5206,28 @@
         <v>7</v>
       </c>
       <c r="AM26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR26" t="n">
         <v>18</v>
       </c>
       <c r="AS26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU26" t="n">
         <v>22</v>
@@ -5172,7 +5239,7 @@
         <v>26</v>
       </c>
       <c r="AX26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5187,7 +5254,7 @@
         <v>17</v>
       </c>
       <c r="BC26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-27-2012-13</t>
+          <t>2013-02-27</t>
         </is>
       </c>
     </row>
@@ -5216,115 +5283,115 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F27" t="n">
         <v>39</v>
       </c>
       <c r="G27" t="n">
-        <v>0.339</v>
+        <v>0.328</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
       </c>
       <c r="I27" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J27" t="n">
         <v>83.40000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.441</v>
+        <v>0.439</v>
       </c>
       <c r="L27" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M27" t="n">
         <v>18.8</v>
       </c>
       <c r="N27" t="n">
-        <v>0.365</v>
+        <v>0.364</v>
       </c>
       <c r="O27" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="P27" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="Q27" t="n">
         <v>0.762</v>
       </c>
       <c r="R27" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S27" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="T27" t="n">
         <v>40.4</v>
       </c>
       <c r="U27" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="V27" t="n">
         <v>14.9</v>
       </c>
       <c r="W27" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X27" t="n">
         <v>4.3</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Z27" t="n">
         <v>21.1</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.09999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>-6.7</v>
+        <v>-7.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK27" t="n">
         <v>23</v>
       </c>
-      <c r="AF27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>20</v>
-      </c>
       <c r="AL27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM27" t="n">
         <v>18</v>
       </c>
       <c r="AN27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO27" t="n">
         <v>8</v>
@@ -5333,7 +5400,7 @@
         <v>11</v>
       </c>
       <c r="AQ27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR27" t="n">
         <v>11</v>
@@ -5345,7 +5412,7 @@
         <v>27</v>
       </c>
       <c r="AU27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV27" t="n">
         <v>18</v>
@@ -5363,10 +5430,10 @@
         <v>25</v>
       </c>
       <c r="BA27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BB27" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-27-2012-13</t>
+          <t>2013-02-27</t>
         </is>
       </c>
     </row>
@@ -5398,46 +5465,46 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E28" t="n">
         <v>45</v>
       </c>
       <c r="F28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G28" t="n">
-        <v>0.763</v>
+        <v>0.776</v>
       </c>
       <c r="H28" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I28" t="n">
-        <v>39.3</v>
+        <v>39.4</v>
       </c>
       <c r="J28" t="n">
         <v>81.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.485</v>
+        <v>0.486</v>
       </c>
       <c r="L28" t="n">
         <v>8.4</v>
       </c>
       <c r="M28" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="N28" t="n">
         <v>0.379</v>
       </c>
       <c r="O28" t="n">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="P28" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.788</v>
+        <v>0.79</v>
       </c>
       <c r="R28" t="n">
         <v>7.9</v>
@@ -5446,7 +5513,7 @@
         <v>33.1</v>
       </c>
       <c r="T28" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U28" t="n">
         <v>24.9</v>
@@ -5461,22 +5528,22 @@
         <v>5.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AI28" t="n">
         <v>2</v>
@@ -5512,7 +5579,7 @@
         <v>15</v>
       </c>
       <c r="AP28" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AQ28" t="n">
         <v>4</v>
@@ -5524,13 +5591,13 @@
         <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW28" t="n">
         <v>4</v>
@@ -5539,7 +5606,7 @@
         <v>15</v>
       </c>
       <c r="AY28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-27-2012-13</t>
+          <t>2013-02-27</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" t="n">
         <v>23</v>
       </c>
       <c r="F29" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G29" t="n">
-        <v>0.397</v>
+        <v>0.404</v>
       </c>
       <c r="H29" t="n">
         <v>48.9</v>
@@ -5598,19 +5665,19 @@
         <v>36.1</v>
       </c>
       <c r="J29" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K29" t="n">
         <v>0.441</v>
       </c>
       <c r="L29" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M29" t="n">
         <v>21.1</v>
       </c>
       <c r="N29" t="n">
-        <v>0.349</v>
+        <v>0.354</v>
       </c>
       <c r="O29" t="n">
         <v>17.5</v>
@@ -5637,37 +5704,37 @@
         <v>13.1</v>
       </c>
       <c r="W29" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X29" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y29" t="n">
         <v>5.1</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AA29" t="n">
         <v>19.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
       </c>
       <c r="AF29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH29" t="n">
         <v>3</v>
@@ -5676,7 +5743,7 @@
         <v>24</v>
       </c>
       <c r="AJ29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK29" t="n">
         <v>19</v>
@@ -5688,10 +5755,10 @@
         <v>8</v>
       </c>
       <c r="AN29" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP29" t="n">
         <v>15</v>
@@ -5718,7 +5785,7 @@
         <v>19</v>
       </c>
       <c r="AX29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY29" t="n">
         <v>16</v>
@@ -5727,7 +5794,7 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB29" t="n">
         <v>16</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-27-2012-13</t>
+          <t>2013-02-27</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E30" t="n">
         <v>31</v>
       </c>
       <c r="F30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G30" t="n">
-        <v>0.534</v>
+        <v>0.544</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
@@ -5780,67 +5847,67 @@
         <v>37</v>
       </c>
       <c r="J30" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K30" t="n">
         <v>0.452</v>
       </c>
       <c r="L30" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M30" t="n">
         <v>16.7</v>
       </c>
       <c r="N30" t="n">
-        <v>0.361</v>
+        <v>0.362</v>
       </c>
       <c r="O30" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P30" t="n">
         <v>24.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.767</v>
+        <v>0.77</v>
       </c>
       <c r="R30" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S30" t="n">
         <v>29.7</v>
       </c>
       <c r="T30" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="U30" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V30" t="n">
         <v>14.8</v>
       </c>
       <c r="W30" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X30" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y30" t="n">
         <v>5.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AA30" t="n">
         <v>20.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
         <v>13</v>
@@ -5852,16 +5919,16 @@
         <v>13</v>
       </c>
       <c r="AH30" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI30" t="n">
         <v>15</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL30" t="n">
         <v>24</v>
@@ -5870,7 +5937,7 @@
         <v>27</v>
       </c>
       <c r="AN30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO30" t="n">
         <v>6</v>
@@ -5879,7 +5946,7 @@
         <v>7</v>
       </c>
       <c r="AQ30" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AR30" t="n">
         <v>10</v>
@@ -5891,7 +5958,7 @@
         <v>16</v>
       </c>
       <c r="AU30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV30" t="n">
         <v>15</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-27-2012-13</t>
+          <t>2013-02-27</t>
         </is>
       </c>
     </row>
@@ -5944,22 +6011,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E31" t="n">
         <v>18</v>
       </c>
       <c r="F31" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G31" t="n">
-        <v>0.321</v>
+        <v>0.327</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="J31" t="n">
         <v>82.3</v>
@@ -5968,34 +6035,34 @@
         <v>0.43</v>
       </c>
       <c r="L31" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M31" t="n">
         <v>18.6</v>
       </c>
       <c r="N31" t="n">
-        <v>0.354</v>
+        <v>0.353</v>
       </c>
       <c r="O31" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="P31" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.738</v>
+        <v>0.739</v>
       </c>
       <c r="R31" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S31" t="n">
         <v>32.5</v>
       </c>
       <c r="T31" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U31" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V31" t="n">
         <v>15.5</v>
@@ -6004,16 +6071,16 @@
         <v>7.5</v>
       </c>
       <c r="X31" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y31" t="n">
         <v>4.9</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB31" t="n">
         <v>92</v>
@@ -6028,7 +6095,7 @@
         <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG31" t="n">
         <v>28</v>
@@ -6040,7 +6107,7 @@
         <v>27</v>
       </c>
       <c r="AJ31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK31" t="n">
         <v>29</v>
@@ -6052,10 +6119,10 @@
         <v>19</v>
       </c>
       <c r="AN31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP31" t="n">
         <v>25</v>
@@ -6070,10 +6137,10 @@
         <v>7</v>
       </c>
       <c r="AT31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU31" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AV31" t="n">
         <v>28</v>
@@ -6082,22 +6149,22 @@
         <v>18</v>
       </c>
       <c r="AX31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY31" t="n">
         <v>13</v>
       </c>
       <c r="AZ31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA31" t="n">
         <v>26</v>
       </c>
       <c r="BB31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-27-2012-13</t>
+          <t>2013-02-27</t>
         </is>
       </c>
     </row>
